--- a/pred_ohlcv/54_21/2019-11-12 FZZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-12 FZZ ohlcv.xlsx
@@ -1822,7 +1822,7 @@
         <v>-5290225.69156313</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-5290225.69156313</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>7118951.053305401</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>5682350.5393054</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>4279306.9821054</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>9825541.744781215</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>10228350.15473348</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>9144143.568333475</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>9475166.691737566</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>9124093.664637566</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>7954857.124637566</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>7741912.630337565</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>6039475.173806597</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>4366655.510206597</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>5455102.598606597</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>8574476.368406598</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>8090687.796606598</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>9090787.671877755</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>8657267.568120284</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>8632424.898420284</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>7815637.668620284</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>7248057.245320284</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>6607307.887320284</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>6854165.910020283</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>6740740.615720283</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>6688300.471520283</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>6798657.588320283</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>6802161.588320283</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>6801289.588320283</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>7480140.705920283</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>7326463.780920283</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>7331308.280520283</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>7329977.908820283</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>7629008.616820282</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>7628152.169520282</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>7334182.169420282</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>7334182.169420282</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>7337283.155420282</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>7063722.429120282</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-12 FZZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-12 FZZ ohlcv.xlsx
@@ -1822,7 +1822,7 @@
         <v>-5290225.69156313</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-5290225.69156313</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-5290067.69156313</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>7118951.053305401</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>5682350.5393054</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>4279306.9821054</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>9143790.190781215</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>9825541.744781215</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>10228350.15473348</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>9705093.931433475</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>9144143.568333475</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>9475166.691737566</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>9124093.664637566</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>7954857.124637566</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>7954857.124637566</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>6039475.173806597</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>4366655.510206597</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>5455102.598606597</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>8574476.368406598</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>8090687.796606598</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>9090787.671877755</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>8657267.568120284</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>8632424.898420284</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>7815637.668620284</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>7248057.245320284</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>6607307.887320284</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>6854165.910020283</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>6740740.615720283</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>6688300.471520283</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>6798657.588320283</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>6802161.588320283</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>6801289.588320283</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>7480140.705920283</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>7326463.780920283</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>7331308.280520283</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>7329977.908820283</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>7629008.616820282</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>7628152.169520282</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>7334182.169420282</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>7334182.169420282</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>7337283.155420282</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>7063722.429120282</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
